--- a/Database/teszt/manualis tesztek.xlsx
+++ b/Database/teszt/manualis tesztek.xlsx
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="124">
   <si>
     <t>Várt eredmény</t>
   </si>
@@ -244,12 +244,6 @@
     <t>SELECT * FROM tbl_finance WHERE finance_ID = (SELECT MAX(finance_ID) FROM tbl_finance);</t>
   </si>
   <si>
-    <t>10074000.00</t>
-  </si>
-  <si>
-    <t>tbl_finance(balance) értéke a teszt kezdetén</t>
-  </si>
-  <si>
     <t>SELECT product_name FROM tbl_product WHERE product_ID = 1;</t>
   </si>
   <si>
@@ -262,12 +256,6 @@
     <t>"Fiskars Benzines Fűnyíró"</t>
   </si>
   <si>
-    <t>65000.00</t>
-  </si>
-  <si>
-    <t>90000.00</t>
-  </si>
-  <si>
     <t>SELECT stock_number  FROM tbl_product WHERE product_ID = 1;</t>
   </si>
   <si>
@@ -301,9 +289,6 @@
     <t xml:space="preserve">INSERT INTO tbl_sale (staff_ID, customer_ID, product_ID, quantity_sale) VALUES (1, 1, 1, 10); </t>
   </si>
   <si>
-    <t>tbl_finance(balance) értéke: 10074000.00 + (90000.00 * 10)</t>
-  </si>
-  <si>
     <t>SELECT  balance FROM tbl_finance WHERE finance_ID = (SELECT MAX(finance_ID) FROM tbl_finance);</t>
   </si>
   <si>
@@ -313,9 +298,6 @@
     <t>product_ID = 1; Fiskars Benzines Fűnyíró -ból eladunk 10-et.</t>
   </si>
   <si>
-    <t>A trigger helyesen beszúrt egy rekordot a tbl_finance táblába (12). A trigger helyesen számolta ki a balance új értékét. balance új = balance + (product_profit_price * quantity_sale)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> SELECT * FROM tbl_sale WHERE sale_ID = (SELECT MAX(sale_ID) FROM tbl_sale);</t>
   </si>
   <si>
@@ -355,24 +337,12 @@
     <t>Nem jó</t>
   </si>
   <si>
-    <t>tbl_finance(balance) értéke: 10974000 - (65000.00 * 20)</t>
-  </si>
-  <si>
-    <t>9674000.00</t>
-  </si>
-  <si>
     <t>TE_25</t>
   </si>
   <si>
-    <t>A trigger helyesen beszúrt egy rekordot a tbl_finance táblába (13). A trigger helyesen számolta ki a balance új értékét. balance új = balance - (product_price * quantity_buy)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> SELECT total_price FROM tbl_buy WHERE buy_ID = (SELECT MAX(buy_ID) FROM tbl_buy);</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1300000.00</t>
-  </si>
-  <si>
     <t>A triggerek (INSERT és UPDATE)  megfelelően működtek.</t>
   </si>
   <si>
@@ -388,9 +358,6 @@
     <t xml:space="preserve">INSERT INTO tbl_sale (staff_ID, customer_ID, product_ID, quantity_sale) VALUES (1, 1, 1, -10); </t>
   </si>
   <si>
-    <t>product_ID = 1; Fiskars Benzines Fűnyíró -ból. 21db van</t>
-  </si>
-  <si>
     <t>TE_27</t>
   </si>
   <si>
@@ -403,18 +370,6 @@
     <t>TE_30</t>
   </si>
   <si>
-    <t>sztornózunk: 10 db-ot:  (ennyivel nő a darabszám!) 21+10</t>
-  </si>
-  <si>
-    <t>product_ID = 1; Fiskars Benzines Fűnyíró -ból. 31db van</t>
-  </si>
-  <si>
-    <t>8774000.00</t>
-  </si>
-  <si>
-    <t>9674000 - (90000.00 * 10) = 8774000</t>
-  </si>
-  <si>
     <t xml:space="preserve">balance értéke </t>
   </si>
   <si>
@@ -469,9 +424,6 @@
     <t>tbl_sale.total_price</t>
   </si>
   <si>
-    <t>A trigger helyesen módosította a tbl_product.stock_number mezőjét.Értéke: 11-10 = 1</t>
-  </si>
-  <si>
     <t>INSERT INTO tbl_buy (staff_ID, customer_ID, product_ID, quantity_buy)VALUES (1, 1 ,1 , 20);</t>
   </si>
   <si>
@@ -484,16 +436,46 @@
     <t>tbl_product.stock_number.</t>
   </si>
   <si>
-    <t>A trigger helyesen módosította a tbl_product.stock_number mezőjét!  Értéke: 1 + 20 = 21</t>
-  </si>
-  <si>
-    <t>A triggerek (INSERT és UPDATE)  megfelelően működtek, sztornó (azaz negatív darabszám) esetén is.</t>
-  </si>
-  <si>
     <t>Művelet</t>
   </si>
   <si>
     <t>A tesztelést a XAMPP konzolos felületén végeztem, ahol a várt és a kapott eredmények teljes mértékben egyeztek, az adatbázis és a triggerek megfelelően működnek.</t>
+  </si>
+  <si>
+    <t>tbl_finance.balance értéke a teszt kezdetén</t>
+  </si>
+  <si>
+    <t>A trigger helyesen beszúrt egy rekordot a tbl_finance táblába. A trigger helyesen számolta ki a balance új értékét. balance új = balance + (product_profit_price * quantity_sale)</t>
+  </si>
+  <si>
+    <t>A trigger helyesen beszúrt egy rekordot a tbl_finance táblába . A trigger helyesen számolta ki a balance új értékét. balance új = balance - (product_price * quantity_buy)</t>
+  </si>
+  <si>
+    <t>product_ID = 1; Fiskars Benzines Fűnyíró -ból. 20db van</t>
+  </si>
+  <si>
+    <t>sztornózunk: 10 db-ot:  (ennyivel nő a darabszám!) 20+10</t>
+  </si>
+  <si>
+    <t>product_ID = 1; Fiskars Benzines Fűnyíró -ból. 30db van</t>
+  </si>
+  <si>
+    <t>tbl_finance(balance) értéke: 12091000.00 + (90000.00 * 10)</t>
+  </si>
+  <si>
+    <t>A trigger helyesen módosította a tbl_product.stock_number mezőjét.Értéke: 10-10 = 0</t>
+  </si>
+  <si>
+    <t>tbl_finance(balance) értéke: 12991000 - (65000 * 20)</t>
+  </si>
+  <si>
+    <t>A trigger helyesen módosította a tbl_product.stock_number mezőjét!  Értéke: 0 + 20 = 20</t>
+  </si>
+  <si>
+    <t>11691000 - (90000.00 * 10) = 10791000</t>
+  </si>
+  <si>
+    <t>A triggerek (INSERT és UPDATE)  megfelelően működtek, sztornó (azaz eladásnál, negatív darabszám) esetén is.</t>
   </si>
 </sst>
 </file>
@@ -1089,11 +1071,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -1103,6 +1083,7 @@
     <col min="4" max="4" width="27.33203125" customWidth="1"/>
     <col min="5" max="5" width="33.33203125" customWidth="1"/>
     <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="84.75" customHeight="1">
@@ -1113,7 +1094,7 @@
         <v>19</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
@@ -1125,7 +1106,7 @@
         <v>2</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18" customHeight="1" thickBot="1">
@@ -1149,7 +1130,7 @@
       <c r="E3" s="11"/>
       <c r="F3" s="12"/>
       <c r="H3" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1160,13 +1141,13 @@
         <v>15</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>13</v>
@@ -1197,10 +1178,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="D6">
         <v>17</v>
@@ -1217,10 +1198,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="D7">
         <v>8</v>
@@ -1323,10 +1304,10 @@
         <v>34</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="F12" s="14" t="s">
         <v>13</v>
@@ -1363,10 +1344,10 @@
         <v>38</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="F14" s="19" t="s">
         <v>13</v>
@@ -1374,7 +1355,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="23" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -1387,16 +1368,16 @@
         <v>28</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>46</v>
+      <c r="D16" s="8">
+        <v>12091000</v>
+      </c>
+      <c r="E16" s="8">
+        <v>12091000</v>
       </c>
       <c r="F16" s="14" t="s">
         <v>13</v>
@@ -1407,16 +1388,16 @@
         <v>29</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D17" s="21">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="E17" s="21">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="F17" s="14" t="s">
         <v>13</v>
@@ -1427,16 +1408,16 @@
         <v>30</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F18" s="14" t="s">
         <v>13</v>
@@ -1447,16 +1428,16 @@
         <v>43</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>52</v>
+        <v>47</v>
+      </c>
+      <c r="D19" s="8">
+        <v>65000</v>
+      </c>
+      <c r="E19" s="8">
+        <v>65000</v>
       </c>
       <c r="F19" s="14" t="s">
         <v>13</v>
@@ -1464,19 +1445,19 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
+      </c>
+      <c r="D20" s="8">
+        <v>90000</v>
+      </c>
+      <c r="E20" s="8">
+        <v>90000</v>
       </c>
       <c r="F20" s="14" t="s">
         <v>13</v>
@@ -1484,19 +1465,19 @@
     </row>
     <row r="21" spans="1:6" ht="15" thickBot="1">
       <c r="A21" s="13" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D21" s="18">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E21" s="18">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F21" s="19" t="s">
         <v>13</v>
@@ -1504,7 +1485,7 @@
     </row>
     <row r="22" spans="1:6" ht="15" thickBot="1">
       <c r="A22" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D22" t="s">
         <v>14</v>
@@ -1515,7 +1496,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="10" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -1525,35 +1506,35 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="13" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="15" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D25" s="8">
-        <v>10974000</v>
+        <v>12991000</v>
       </c>
       <c r="E25" s="8">
-        <v>10974000</v>
+        <v>12991000</v>
       </c>
       <c r="F25" s="14" t="s">
         <v>13</v>
@@ -1561,19 +1542,19 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B26" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="D26" s="21">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="E26" s="21">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F26" s="14" t="s">
         <v>13</v>
@@ -1581,7 +1562,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="13" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -1602,13 +1583,13 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="13" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D30" s="20">
         <v>10</v>
@@ -1622,13 +1603,13 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="13" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D31" s="8">
         <v>900000</v>
@@ -1642,7 +1623,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="13" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -1652,19 +1633,19 @@
     </row>
     <row r="33" spans="1:6" ht="15" thickBot="1">
       <c r="A33" s="16" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D33" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" s="19" t="s">
         <v>13</v>
@@ -1672,13 +1653,13 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" thickBot="1"/>
     <row r="36" spans="1:6">
       <c r="A36" s="10" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -1688,35 +1669,35 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="13" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="15" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="13" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D38" s="8">
-        <v>9674000</v>
-      </c>
-      <c r="E38" s="20" t="s">
-        <v>84</v>
+        <v>11691000</v>
+      </c>
+      <c r="E38" s="20">
+        <v>11691000</v>
       </c>
       <c r="F38" s="14" t="s">
         <v>13</v>
@@ -1724,19 +1705,19 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="13" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B39" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C39" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="D39" s="21">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="E39" s="21">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="F39" s="14" t="s">
         <v>13</v>
@@ -1744,7 +1725,7 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="13" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -1754,19 +1735,19 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="13" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D41" s="8">
         <v>1300000</v>
       </c>
-      <c r="E41" s="9" t="s">
-        <v>88</v>
+      <c r="E41" s="9">
+        <v>1300000</v>
       </c>
       <c r="F41" s="14" t="s">
         <v>13</v>
@@ -1774,7 +1755,7 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="13" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -1784,19 +1765,19 @@
     </row>
     <row r="43" spans="1:6" ht="15" thickBot="1">
       <c r="A43" s="16" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D43" s="17">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E43" s="17">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F43" s="19" t="s">
         <v>13</v>
@@ -1804,17 +1785,17 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="27" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15" thickBot="1">
       <c r="A45" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="10" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -1824,13 +1805,13 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="13" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D47" s="8">
         <v>21</v>
@@ -1844,19 +1825,19 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="13" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D48" s="8">
-        <v>9674000</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>84</v>
+        <v>11691000</v>
+      </c>
+      <c r="E48" s="9">
+        <v>11691000</v>
       </c>
       <c r="F48" s="14" t="s">
         <v>13</v>
@@ -1864,35 +1845,35 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B49" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B49" s="8" t="s">
-        <v>99</v>
-      </c>
       <c r="C49" s="8" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="15" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B50" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B50" s="8" t="s">
-        <v>100</v>
-      </c>
       <c r="C50" s="8" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D50" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E50" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F50" s="14" t="s">
         <v>13</v>
@@ -1900,19 +1881,19 @@
     </row>
     <row r="51" spans="1:6" ht="15" thickBot="1">
       <c r="A51" s="13" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D51" s="17">
-        <v>8774000</v>
-      </c>
-      <c r="E51" s="18" t="s">
-        <v>101</v>
+        <v>10791000</v>
+      </c>
+      <c r="E51" s="18">
+        <v>10791000</v>
       </c>
       <c r="F51" s="19" t="s">
         <v>13</v>
@@ -1920,12 +1901,15 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="28" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.6">
-      <c r="A54" s="6" t="s">
-        <v>129</v>
+      <c r="A54" s="6"/>
+    </row>
+    <row r="55" spans="1:6" ht="15.6">
+      <c r="A55" s="6" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
